--- a/FTSE Bursa Malaysia KLCI Index.xlsx
+++ b/FTSE Bursa Malaysia KLCI Index.xlsx
@@ -278,7 +278,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -286,12 +286,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -299,49 +314,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -648,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,762 +689,766 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-    </row>
-    <row r="2" spans="1:7" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E3" s="13" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="16"/>
-    </row>
-    <row r="4" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="14" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="9">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="17">
         <v>1295</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="18">
         <v>11.6</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="19">
         <v>15.33</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="20">
         <v>73.84</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="17">
         <v>1155</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="18">
         <v>9.32</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="19">
         <v>12.47</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="20">
         <v>87.66</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="9">
         <v>3</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="17">
         <v>5347</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="18">
         <v>9.2799999999999994</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="19">
         <v>9.15</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="20">
         <v>69.42</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="9">
         <v>4</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="17">
         <v>1023</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="18">
         <v>5.76</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="19">
         <v>17.420000000000002</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="20">
         <v>46.69</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="9">
         <v>5</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="17">
         <v>6888</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="18">
         <v>5.62</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="19">
         <v>24.27</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="20">
         <v>55.44</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="9">
         <v>6</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="17">
         <v>4197</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="18">
         <v>5.51</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="19">
         <v>21.76</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="20">
         <v>52.42</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="9">
         <v>7</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="17">
         <v>6947</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="18">
         <v>4.16</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="19">
         <v>21.02</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="20">
         <v>41.29</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="9">
         <v>8</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="17">
         <v>3182</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="18">
         <v>3.68</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="19">
         <v>19.54</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="20">
         <v>30.88</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="9">
         <v>9</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="17">
         <v>5183</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="18">
         <v>3.55</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="19">
         <v>21.83</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="20">
         <v>51.52</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="9">
         <v>10</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="17">
         <v>6012</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="18">
         <v>3.45</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="19">
         <v>30.05</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="20">
         <v>49.48</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="9">
         <v>11</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="17">
         <v>6033</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="18">
         <v>3.4</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="19">
         <v>22.79</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="20">
         <v>42.82</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="9">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="17">
         <v>5225</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="18">
         <v>3.28</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="19">
         <v>63.42</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="20">
         <v>48.76</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="9">
         <v>13</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="17">
         <v>1961</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="18">
         <v>2.99</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="19">
         <v>73.91</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="20">
         <v>27.45</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="9">
         <v>14</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="17">
         <v>4863</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="18">
         <v>2.96</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="19">
         <v>32.340000000000003</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="20">
         <v>25.14</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="9">
         <v>15</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="17">
         <v>4715</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="18">
         <v>2.5</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="19">
         <v>20.21</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="20">
         <v>25.53</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="9">
         <v>16</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="17">
         <v>3816</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="18">
         <v>2.4500000000000002</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="19">
         <v>15.99</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="20">
         <v>35.44</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="9">
         <v>17</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="17">
         <v>1015</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="18">
         <v>2.38</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="19">
         <v>8.82</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="20">
         <v>17.09</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="9">
         <v>18</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="17">
         <v>2445</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="18">
         <v>2.2799999999999998</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="19">
         <v>29.21</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="20">
         <v>24.02</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="9">
         <v>19</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="17">
         <v>5218</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="18">
         <v>1.98</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="19">
         <v>12.08</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="20">
         <v>14.26</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="9">
         <v>20</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="17">
         <v>4065</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="18">
         <v>1.8</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="19">
         <v>18.13</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="20">
         <v>17.829999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25" s="9">
         <v>21</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="17">
         <v>4162</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="18">
         <v>1.7</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="19">
         <v>20.059999999999999</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="20">
         <v>18.5</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26" s="9">
         <v>22</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="17">
         <v>5819</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="18">
         <v>1.67</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="19">
         <v>11.19</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="20">
         <v>25.68</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27" s="9">
         <v>23</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="17">
         <v>4677</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="18">
         <v>1.63</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="19">
         <v>14.95</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="20">
         <v>17.38</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28" s="9">
         <v>24</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="17">
         <v>4588</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="18">
         <v>1.37</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="19">
         <v>20.41</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="20">
         <v>11.96</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="A29" s="9">
         <v>25</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="17">
         <v>6399</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="18">
         <v>1.22</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="19">
         <v>28.32</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="20">
         <v>15.97</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="A30" s="9">
         <v>26</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="17">
         <v>5681</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="18">
         <v>1.21</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="19">
         <v>37.049999999999997</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="20">
         <v>20.43</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="A31" s="9">
         <v>27</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="17">
         <v>1066</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="18">
         <v>1.06</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="19">
         <v>9.18</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="20">
         <v>19.52</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="A32" s="9">
         <v>28</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="17">
         <v>5246</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="18">
         <v>0.93</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="19">
         <v>26.6</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="20">
         <v>14.05</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="A33" s="9">
         <v>29</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="17">
         <v>1082</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="18">
         <v>0.64</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="19">
         <v>9.94</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="20">
         <v>16.32</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="A34" s="9">
         <v>30</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="18">
         <v>0.63</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="19">
         <v>28.2</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="20">
         <v>12.71</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="6" t="s">
         <v>59</v>
       </c>
     </row>
